--- a/public/uploads/files/properties/properties.xlsx
+++ b/public/uploads/files/properties/properties.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/149b3f3bdc8e479e/Рабочий стол/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OSPanel\domains\example-app\public\uploads\files\properties\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CEF704A-FC52-41B3-B5E8-BEE8C38DC35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB0687C-31F3-4AF4-ADDF-66B37DD7F7A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8136" yWindow="960" windowWidth="11412" windowHeight="8880" xr2:uid="{9C87C207-C5AC-4850-8773-33A1529AB76F}"/>
+    <workbookView xWindow="2472" yWindow="1116" windowWidth="11412" windowHeight="8880" xr2:uid="{9C87C207-C5AC-4850-8773-33A1529AB76F}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Название</t>
   </si>
@@ -45,68 +45,35 @@
     <t>Год</t>
   </si>
   <si>
-    <t>стул</t>
-  </si>
-  <si>
-    <t>sssrwd3</t>
-  </si>
-  <si>
     <t>Одеяло</t>
   </si>
   <si>
-    <t>aaa90hu7</t>
-  </si>
-  <si>
-    <t>шкаф</t>
-  </si>
-  <si>
-    <t>3348tye</t>
-  </si>
-  <si>
-    <t>Стол</t>
-  </si>
-  <si>
-    <t>sihdt32</t>
-  </si>
-  <si>
-    <t>Стул</t>
-  </si>
-  <si>
-    <t>hgty23e</t>
-  </si>
-  <si>
-    <t>Шкаф</t>
-  </si>
-  <si>
-    <t>gdsr87y</t>
-  </si>
-  <si>
     <t>Подушка</t>
   </si>
   <si>
-    <t>kliwq21q</t>
-  </si>
-  <si>
-    <t>Покрывало</t>
-  </si>
-  <si>
-    <t>sdoiy67y</t>
-  </si>
-  <si>
-    <t>yureo90w</t>
-  </si>
-  <si>
-    <t>одеяло</t>
-  </si>
-  <si>
-    <t>dse54ty67</t>
+    <t>Статус </t>
+  </si>
+  <si>
+    <t>ER2090</t>
+  </si>
+  <si>
+    <t>Списано</t>
+  </si>
+  <si>
+    <t>Полка</t>
+  </si>
+  <si>
+    <t>TN2668</t>
+  </si>
+  <si>
+    <t>LD6422</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,13 +81,6 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF212529"/>
-      <name val="Source Sans Pro"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -136,6 +96,21 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF212529"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212529"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -189,45 +164,45 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
+      <left/>
+      <right style="medium">
+        <color rgb="FFDEE2E6"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFDEE2E6"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -544,150 +519,120 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{289A1EB3-AE2D-4ED9-A6DA-89AAE764774E}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="1" max="1" width="14.21875" customWidth="1"/>
     <col min="2" max="2" width="12.77734375" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="D1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="9">
+        <v>2009</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="9">
+        <v>2018</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="5">
-        <v>2001</v>
-      </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="5">
-        <v>1999</v>
-      </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+      <c r="B4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="9">
+        <v>2022</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1989</v>
-      </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="5">
-        <v>2001</v>
-      </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="5">
-        <v>2023</v>
-      </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="5">
-        <v>2020</v>
-      </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="5">
-        <v>2023</v>
-      </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="7">
-        <v>2005</v>
-      </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="5">
-        <v>2020</v>
-      </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="5">
-        <v>2004</v>
-      </c>
-      <c r="D11" s="2"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
